--- a/electricitylci/data/eLCI_data.xlsx
+++ b/electricitylci/data/eLCI_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF99A4B1-40C8-4110-B7D6-BF8D2EFDED57}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCAB7B9-5E61-4287-942F-6E9B8B56493E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,50 +578,50 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
